--- a/manuscripts/expression/sclc-tpm-de/data/sclc_tx_q4_cycle.xlsx
+++ b/manuscripts/expression/sclc-tpm-de/data/sclc_tx_q4_cycle.xlsx
@@ -4,17 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="836"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14740" tabRatio="836"/>
   </bookViews>
   <sheets>
     <sheet name="SCLC" sheetId="26" r:id="rId1"/>
     <sheet name="LUAD" sheetId="31" r:id="rId2"/>
-    <sheet name="CLL" sheetId="33" r:id="rId3"/>
-    <sheet name="LCNEC (RB1)" sheetId="29" r:id="rId4"/>
-    <sheet name="LCNEC (WT)" sheetId="30" r:id="rId5"/>
-    <sheet name="Table S5 (all)" sheetId="32" r:id="rId6"/>
-    <sheet name="Table S5 (pcg)" sheetId="28" r:id="rId7"/>
-    <sheet name="Table S5 (pcg.snv)" sheetId="27" r:id="rId8"/>
+    <sheet name="LUSC" sheetId="36" r:id="rId3"/>
+    <sheet name="LUSC Normal" sheetId="37" r:id="rId4"/>
+    <sheet name="CLL" sheetId="33" r:id="rId5"/>
+    <sheet name="NBL" sheetId="34" r:id="rId6"/>
+    <sheet name="SCLC (pcg)" sheetId="35" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -26,15 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="12">
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
   <si>
     <t>Q1</t>
@@ -58,27 +51,6 @@
     <t>G2-M genes</t>
   </si>
   <si>
-    <t>G1-S/G2-M</t>
-  </si>
-  <si>
-    <t>Table S5.  Proportion of cell cycle genes in SCLC expressions (with a SNV)</t>
-  </si>
-  <si>
-    <t>Table S5.  Proportion of cell cycle genes in SCLC expressions (All)</t>
-  </si>
-  <si>
-    <t>Table S5.  Proportion of cell cycle genes in SCLC expressions (non-overlapping protein coding only)</t>
-  </si>
-  <si>
-    <t>log2(G2-M/G1-S)</t>
-  </si>
-  <si>
-    <t>G1/S genes</t>
-  </si>
-  <si>
-    <t>G2/M genes</t>
-  </si>
-  <si>
     <t>Table S5.  Proportion of cell cycle genes in CLL expressions (n=96)</t>
   </si>
   <si>
@@ -87,12 +59,15 @@
   <si>
     <t>Table S5.  Proportion of cell cycle genes in SCLC expressions (n=81)</t>
   </si>
+  <si>
+    <t>Table S5.  Proportion of cell cycle genes in NBL expressions (n=54)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,13 +113,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -153,13 +121,6 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -696,49 +657,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="459">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1242,7 +1186,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1206500" y="2578100"/>
+          <a:off x="1206500" y="2070100"/>
           <a:ext cx="3657600" cy="5486400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1351,20 +1295,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="plot_sclc_genes_tx_q4_g2g_density.pdf"/>
+        <xdr:cNvPr id="11" name="Picture 10" descr="plot_sclc_genes_tx_q4_g2g_density.pdf"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1383,8 +1327,102 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8839200" y="7594600"/>
+          <a:off x="12966700" y="2070100"/>
           <a:ext cx="5486400" cy="5486400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="boxplot_sclc_genes_ALL-G1S-G2M_length.pdf"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5016500" y="7785100"/>
+          <a:ext cx="2743200" cy="5486400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="7785100"/>
+          <a:ext cx="2743200" cy="5486400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1791,13 +1829,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1821,7 +1859,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1206500" y="2578100"/>
+          <a:off x="1206500" y="2070100"/>
           <a:ext cx="3657600" cy="5486400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1838,13 +1876,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1868,8 +1906,102 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5016500" y="2578100"/>
+          <a:off x="5016500" y="2070100"/>
           <a:ext cx="3657600" cy="5486400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="2070100"/>
+          <a:ext cx="3657600" cy="5486400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="7594600"/>
+          <a:ext cx="5486400" cy="5486400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1890,13 +2022,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1920,7 +2052,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1206500" y="2578100"/>
+          <a:off x="1206500" y="2070100"/>
           <a:ext cx="3657600" cy="5486400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1937,13 +2069,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1967,8 +2099,102 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5016500" y="2578100"/>
+          <a:off x="5016500" y="2070100"/>
           <a:ext cx="3657600" cy="5486400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="2070100"/>
+          <a:ext cx="3657600" cy="5486400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="7594600"/>
+          <a:ext cx="5486400" cy="5486400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1989,13 +2215,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2019,7 +2245,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1206500" y="2578100"/>
+          <a:off x="1206500" y="2070100"/>
           <a:ext cx="3657600" cy="5486400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2036,13 +2262,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2066,8 +2292,102 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5016500" y="2578100"/>
+          <a:off x="5016500" y="2070100"/>
           <a:ext cx="3657600" cy="5486400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="2070100"/>
+          <a:ext cx="3657600" cy="5486400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="7594600"/>
+          <a:ext cx="5486400" cy="5486400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2088,13 +2408,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2118,7 +2438,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="825500" y="2514600"/>
+          <a:off x="1206500" y="2070100"/>
           <a:ext cx="3657600" cy="5486400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2135,13 +2455,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2165,59 +2485,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4635500" y="2514600"/>
-          <a:ext cx="3657600" cy="5486400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="boxplot_sclc_genes_tx_q4_cycle.pdf"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="825500" y="2514600"/>
+          <a:off x="5016500" y="2070100"/>
           <a:ext cx="3657600" cy="5486400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2232,26 +2500,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="boxplot_sclc_genes_tx_q4_length.pdf"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2264,8 +2532,55 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4635500" y="2514600"/>
+          <a:off x="8839200" y="2070100"/>
           <a:ext cx="3657600" cy="5486400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="7594600"/>
+          <a:ext cx="5486400" cy="5486400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2605,7 +2920,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+      <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2618,40 +2933,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20">
-      <c r="A1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>8</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -2669,11 +2984,11 @@
         <f>SUM(B4:E4)</f>
         <v>302</v>
       </c>
-      <c r="G4" s="32"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>39</v>
@@ -2681,7 +2996,7 @@
       <c r="C5">
         <v>139</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="16">
         <v>363</v>
       </c>
       <c r="E5">
@@ -2691,32 +3006,32 @@
         <f>SUM(B5:E5)</f>
         <v>844</v>
       </c>
-      <c r="G5" s="32"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
-      <c r="A6" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="29">
+      <c r="A6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
         <v>4734</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="12">
         <v>4589</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="12">
         <v>4291</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="12">
         <v>4372</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="12">
         <f>SUM(B6:E6)</f>
         <v>17986</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B7">
@@ -2757,7 +3072,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2770,40 +3085,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20">
-      <c r="A1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>8</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -2824,7 +3139,7 @@
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>33</v>
@@ -2832,7 +3147,7 @@
       <c r="C5">
         <v>192</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="16">
         <v>338</v>
       </c>
       <c r="E5">
@@ -2844,29 +3159,29 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
-      <c r="A6" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="29">
+      <c r="A6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
         <v>4625</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="12">
         <v>4364</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="12">
         <v>4205</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="12">
         <v>4342</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="12">
         <f>SUM(B6:E6)</f>
         <v>17536</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B7">
@@ -2906,8 +3221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2920,124 +3235,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20">
-      <c r="A1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>8</v>
-      </c>
       <c r="B4">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D4">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="E4">
         <v>69</v>
       </c>
       <c r="F4" s="1">
         <f>SUM(B4:E4)</f>
-        <v>284</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="C5">
-        <v>149</v>
-      </c>
-      <c r="D5" s="6">
-        <v>259</v>
-      </c>
-      <c r="E5" s="33">
-        <v>283</v>
+        <v>142</v>
+      </c>
+      <c r="D5" s="16">
+        <v>386</v>
+      </c>
+      <c r="E5">
+        <v>296</v>
       </c>
       <c r="F5" s="1">
         <f>SUM(B5:E5)</f>
-        <v>802</v>
+        <v>852</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
-      <c r="A6" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="29">
-        <v>4477</v>
-      </c>
-      <c r="C6" s="29">
-        <v>4409</v>
-      </c>
-      <c r="D6" s="29">
-        <v>4257</v>
-      </c>
-      <c r="E6" s="29">
-        <v>4274</v>
-      </c>
-      <c r="F6" s="29">
+      <c r="A6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <v>4902</v>
+      </c>
+      <c r="C6" s="12">
+        <v>4717</v>
+      </c>
+      <c r="D6" s="12">
+        <v>4407</v>
+      </c>
+      <c r="E6" s="12">
+        <v>4573</v>
+      </c>
+      <c r="F6" s="12">
         <f>SUM(B6:E6)</f>
-        <v>17417</v>
+        <v>18599</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B7">
         <f>SUM(B4:B6)</f>
-        <v>4627</v>
+        <v>4939</v>
       </c>
       <c r="C7">
         <f>SUM(C4:C6)</f>
-        <v>4625</v>
+        <v>4938</v>
       </c>
       <c r="D7">
         <f>SUM(D4:D6)</f>
-        <v>4625</v>
+        <v>4939</v>
       </c>
       <c r="E7">
         <f>SUM(E4:E6)</f>
-        <v>4626</v>
+        <v>4938</v>
       </c>
       <c r="F7">
         <f>SUM(F4:F6)</f>
-        <v>18503</v>
+        <v>19754</v>
       </c>
     </row>
   </sheetData>
@@ -3054,10 +3369,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="B4" sqref="B4:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3066,206 +3381,129 @@
     <col min="2" max="5" width="7.83203125" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
     <col min="7" max="7" width="7.83203125" customWidth="1"/>
-    <col min="9" max="11" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20">
-      <c r="A1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11">
+    <row r="1" spans="1:7" ht="20">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="18">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:7" ht="18">
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>8</v>
-      </c>
       <c r="B4">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C4">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E4">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1">
         <f>SUM(B4:E4)</f>
-        <v>300</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="14">
-        <f>SUM(B4:E4)</f>
-        <v>300</v>
-      </c>
-      <c r="J4" s="11">
         <v>302</v>
       </c>
-      <c r="K4" s="26">
-        <f>I4/J4</f>
-        <v>0.99337748344370858</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C5">
-        <v>139</v>
-      </c>
-      <c r="D5" s="17">
-        <v>363</v>
+        <v>172</v>
+      </c>
+      <c r="D5" s="16">
+        <v>337</v>
       </c>
       <c r="E5">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="F5" s="1">
         <f>SUM(B5:E5)</f>
-        <v>844</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="15">
-        <f>SUM(B5:E5)</f>
-        <v>844</v>
-      </c>
-      <c r="J5" s="3">
-        <v>886</v>
-      </c>
-      <c r="K5" s="24">
-        <f>I5/J5</f>
-        <v>0.95259593679458243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>4735</v>
-      </c>
-      <c r="C6" s="3">
-        <v>4589</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4292</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4372</v>
-      </c>
-      <c r="F6" s="3">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <v>4856</v>
+      </c>
+      <c r="C6" s="12">
+        <v>4707</v>
+      </c>
+      <c r="D6" s="12">
+        <v>4509</v>
+      </c>
+      <c r="E6" s="12">
+        <v>4658</v>
+      </c>
+      <c r="F6" s="12">
         <f>SUM(B6:E6)</f>
-        <v>17988</v>
+        <v>18730</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="9">
-        <f>I4/I5</f>
-        <v>0.35545023696682465</v>
-      </c>
-      <c r="J6" s="9">
-        <f>J4/J5</f>
-        <v>0.34085778781038373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
-      <c r="A7" s="20" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
+      <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B7">
         <f>SUM(B4:B6)</f>
-        <v>4783</v>
+        <v>4969</v>
       </c>
       <c r="C7">
         <f>SUM(C4:C6)</f>
-        <v>4783</v>
+        <v>4968</v>
       </c>
       <c r="D7">
         <f>SUM(D4:D6)</f>
-        <v>4782</v>
+        <v>4968</v>
       </c>
       <c r="E7">
         <f>SUM(E4:E6)</f>
-        <v>4784</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
-      <c r="A9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="27">
-        <f>LOG(B5/B4, 2)</f>
-        <v>2.1154772174199361</v>
-      </c>
-      <c r="C9" s="27">
-        <f t="shared" ref="C9:E9" si="0">LOG(C5/C4, 2)</f>
-        <v>1.3375813591988479</v>
-      </c>
-      <c r="D9" s="27">
-        <f t="shared" si="0"/>
-        <v>1.5151410512235848</v>
-      </c>
-      <c r="E9" s="27">
-        <f t="shared" si="0"/>
-        <v>1.4749896586960245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+        <v>4968</v>
+      </c>
+      <c r="F7">
+        <f>SUM(F4:F6)</f>
+        <v>19873</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3281,10 +3519,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3293,206 +3531,129 @@
     <col min="2" max="5" width="7.83203125" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
     <col min="7" max="7" width="7.83203125" customWidth="1"/>
-    <col min="9" max="11" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20">
-      <c r="A1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11">
+    <row r="1" spans="1:7" ht="20">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="18">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:7" ht="18">
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>8</v>
-      </c>
       <c r="B4">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C4">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E4">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="F4" s="1">
         <f>SUM(B4:E4)</f>
-        <v>300</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="14">
-        <f>SUM(B4:E4)</f>
-        <v>300</v>
-      </c>
-      <c r="J4" s="11">
-        <v>302</v>
-      </c>
-      <c r="K4" s="26">
-        <f>I4/J4</f>
-        <v>0.99337748344370858</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="C5">
-        <v>139</v>
-      </c>
-      <c r="D5" s="17">
-        <v>363</v>
-      </c>
-      <c r="E5">
-        <v>303</v>
+        <v>149</v>
+      </c>
+      <c r="D5" s="4">
+        <v>259</v>
+      </c>
+      <c r="E5" s="16">
+        <v>283</v>
       </c>
       <c r="F5" s="1">
         <f>SUM(B5:E5)</f>
-        <v>844</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="15">
-        <f>SUM(B5:E5)</f>
-        <v>844</v>
-      </c>
-      <c r="J5" s="3">
-        <v>886</v>
-      </c>
-      <c r="K5" s="24">
-        <f>I5/J5</f>
-        <v>0.95259593679458243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>4735</v>
-      </c>
-      <c r="C6" s="3">
-        <v>4589</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4292</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4372</v>
-      </c>
-      <c r="F6" s="3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <v>4477</v>
+      </c>
+      <c r="C6" s="12">
+        <v>4409</v>
+      </c>
+      <c r="D6" s="12">
+        <v>4257</v>
+      </c>
+      <c r="E6" s="12">
+        <v>4274</v>
+      </c>
+      <c r="F6" s="12">
         <f>SUM(B6:E6)</f>
-        <v>17988</v>
+        <v>17417</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="9">
-        <f>I4/I5</f>
-        <v>0.35545023696682465</v>
-      </c>
-      <c r="J6" s="9">
-        <f>J4/J5</f>
-        <v>0.34085778781038373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
-      <c r="A7" s="20" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
+      <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B7">
         <f>SUM(B4:B6)</f>
-        <v>4783</v>
+        <v>4627</v>
       </c>
       <c r="C7">
         <f>SUM(C4:C6)</f>
-        <v>4783</v>
+        <v>4625</v>
       </c>
       <c r="D7">
         <f>SUM(D4:D6)</f>
-        <v>4782</v>
+        <v>4625</v>
       </c>
       <c r="E7">
         <f>SUM(E4:E6)</f>
-        <v>4784</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
-      <c r="A9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="27">
-        <f>LOG(B5/B4, 2)</f>
-        <v>2.1154772174199361</v>
-      </c>
-      <c r="C9" s="27">
-        <f t="shared" ref="C9:E9" si="0">LOG(C5/C4, 2)</f>
-        <v>1.3375813591988479</v>
-      </c>
-      <c r="D9" s="27">
-        <f t="shared" si="0"/>
-        <v>1.5151410512235848</v>
-      </c>
-      <c r="E9" s="27">
-        <f t="shared" si="0"/>
-        <v>1.4749896586960245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+        <v>4626</v>
+      </c>
+      <c r="F7">
+        <f>SUM(F4:F6)</f>
+        <v>18503</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3508,11 +3669,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3520,206 +3679,129 @@
     <col min="2" max="5" width="7.83203125" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
     <col min="7" max="7" width="7.83203125" customWidth="1"/>
-    <col min="9" max="11" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20">
-      <c r="A1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11">
+    <row r="1" spans="1:7" ht="20">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="18">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:7" ht="18">
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>8</v>
-      </c>
       <c r="B4">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C4">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E4">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="F4" s="1">
         <f>SUM(B4:E4)</f>
-        <v>300</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="14">
-        <f>SUM(B4:E4)</f>
-        <v>300</v>
-      </c>
-      <c r="J4" s="11">
-        <v>302</v>
-      </c>
-      <c r="K4" s="26">
-        <f>I4/J4</f>
-        <v>0.99337748344370858</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="C5">
-        <v>139</v>
-      </c>
-      <c r="D5" s="17">
-        <v>363</v>
-      </c>
-      <c r="E5">
-        <v>303</v>
+        <v>149</v>
+      </c>
+      <c r="D5" s="4">
+        <v>259</v>
+      </c>
+      <c r="E5" s="16">
+        <v>283</v>
       </c>
       <c r="F5" s="1">
         <f>SUM(B5:E5)</f>
-        <v>844</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="15">
-        <f>SUM(B5:E5)</f>
-        <v>844</v>
-      </c>
-      <c r="J5" s="3">
-        <v>886</v>
-      </c>
-      <c r="K5" s="24">
-        <f>I5/J5</f>
-        <v>0.95259593679458243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>4735</v>
-      </c>
-      <c r="C6" s="3">
-        <v>4589</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4292</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4372</v>
-      </c>
-      <c r="F6" s="3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <v>4477</v>
+      </c>
+      <c r="C6" s="12">
+        <v>4409</v>
+      </c>
+      <c r="D6" s="12">
+        <v>4257</v>
+      </c>
+      <c r="E6" s="12">
+        <v>4274</v>
+      </c>
+      <c r="F6" s="12">
         <f>SUM(B6:E6)</f>
-        <v>17988</v>
+        <v>17417</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="9">
-        <f>I4/I5</f>
-        <v>0.35545023696682465</v>
-      </c>
-      <c r="J6" s="9">
-        <f>J4/J5</f>
-        <v>0.34085778781038373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
-      <c r="A7" s="20" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
+      <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B7">
         <f>SUM(B4:B6)</f>
-        <v>4783</v>
+        <v>4627</v>
       </c>
       <c r="C7">
         <f>SUM(C4:C6)</f>
-        <v>4783</v>
+        <v>4625</v>
       </c>
       <c r="D7">
         <f>SUM(D4:D6)</f>
-        <v>4782</v>
+        <v>4625</v>
       </c>
       <c r="E7">
         <f>SUM(E4:E6)</f>
-        <v>4784</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
-      <c r="A9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="27">
-        <f>LOG(B5/B4, 2)</f>
-        <v>2.1154772174199361</v>
-      </c>
-      <c r="C9" s="27">
-        <f t="shared" ref="C9:E9" si="0">LOG(C5/C4, 2)</f>
-        <v>1.3375813591988479</v>
-      </c>
-      <c r="D9" s="27">
-        <f t="shared" si="0"/>
-        <v>1.5151410512235848</v>
-      </c>
-      <c r="E9" s="27">
-        <f t="shared" si="0"/>
-        <v>1.4749896586960245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+        <v>4626</v>
+      </c>
+      <c r="F7">
+        <f>SUM(F4:F6)</f>
+        <v>18503</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3735,434 +3817,143 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="5" width="7.83203125" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
     <col min="7" max="7" width="7.83203125" customWidth="1"/>
-    <col min="9" max="11" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11">
+    <row r="1" spans="1:7" ht="20">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="18">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:7" ht="18">
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>8</v>
-      </c>
       <c r="B4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="E4">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="F4" s="1">
         <f>SUM(B4:E4)</f>
-        <v>184</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="14">
-        <f>SUM(B4:E4)</f>
-        <v>184</v>
-      </c>
-      <c r="J4" s="11">
-        <v>302</v>
-      </c>
-      <c r="K4" s="12">
-        <f>I4/J4</f>
-        <v>0.60927152317880795</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+        <v>290</v>
+      </c>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>107</v>
-      </c>
-      <c r="D5" s="17">
-        <v>232</v>
+        <v>160</v>
+      </c>
+      <c r="D5" s="16">
+        <v>353</v>
       </c>
       <c r="E5">
-        <v>189</v>
+        <v>272</v>
       </c>
       <c r="F5" s="1">
         <f>SUM(B5:E5)</f>
-        <v>550</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="15">
-        <f>SUM(B5:E5)</f>
-        <v>550</v>
-      </c>
-      <c r="J5" s="3">
-        <v>886</v>
-      </c>
-      <c r="K5" s="18">
-        <f>I5/J5</f>
-        <v>0.62076749435665912</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2622</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2499</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2348</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2402</v>
-      </c>
-      <c r="F6" s="3">
+        <v>819</v>
+      </c>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <v>4210</v>
+      </c>
+      <c r="C6" s="12">
+        <v>4033</v>
+      </c>
+      <c r="D6" s="12">
+        <v>3782</v>
+      </c>
+      <c r="E6" s="12">
+        <v>3890</v>
+      </c>
+      <c r="F6" s="12">
         <f>SUM(B6:E6)</f>
-        <v>9871</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="9">
-        <f>I4/I5</f>
-        <v>0.33454545454545453</v>
-      </c>
-      <c r="J6" s="9">
-        <f>J4/J5</f>
-        <v>0.34085778781038373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
-      <c r="A7" s="20" t="s">
+        <v>15915</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
+      <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B7">
         <f>SUM(B4:B6)</f>
-        <v>2651</v>
+        <v>4256</v>
       </c>
       <c r="C7">
         <f>SUM(C4:C6)</f>
-        <v>2651</v>
+        <v>4256</v>
       </c>
       <c r="D7">
         <f>SUM(D4:D6)</f>
-        <v>2651</v>
+        <v>4255</v>
       </c>
       <c r="E7">
         <f>SUM(E4:E6)</f>
-        <v>2652</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
-      <c r="A9" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="23">
-        <f>B4/B5</f>
-        <v>0.31818181818181818</v>
-      </c>
-      <c r="C9" s="22">
-        <f t="shared" ref="C9:E9" si="0">C4/C5</f>
-        <v>0.42056074766355139</v>
-      </c>
-      <c r="D9" s="21">
-        <f t="shared" si="0"/>
-        <v>0.30603448275862066</v>
-      </c>
-      <c r="E9" s="25">
-        <f t="shared" si="0"/>
-        <v>0.32275132275132273</v>
-      </c>
-      <c r="F9" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="5" width="7.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" customWidth="1"/>
-    <col min="9" max="11" width="8.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="20">
-      <c r="A1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="18">
-      <c r="B3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="6">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>44</v>
-      </c>
-      <c r="D4">
-        <v>69</v>
-      </c>
-      <c r="E4">
-        <v>60</v>
-      </c>
-      <c r="F4" s="1">
-        <f>SUM(B4:E4)</f>
-        <v>180</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="14">
-        <f>SUM(B4:E4)</f>
-        <v>180</v>
-      </c>
-      <c r="J4" s="11">
-        <v>302</v>
-      </c>
-      <c r="K4" s="12">
-        <f>I4/J4</f>
-        <v>0.59602649006622521</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6">
-        <v>23</v>
-      </c>
-      <c r="C5">
-        <v>108</v>
-      </c>
-      <c r="D5" s="17">
-        <v>225</v>
-      </c>
-      <c r="E5">
-        <v>187</v>
-      </c>
-      <c r="F5" s="1">
-        <f>SUM(B5:E5)</f>
-        <v>543</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="15">
-        <f>SUM(B5:E5)</f>
-        <v>543</v>
-      </c>
-      <c r="J5" s="3">
-        <v>886</v>
-      </c>
-      <c r="K5" s="18">
-        <f>I5/J5</f>
-        <v>0.61286681715575619</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="8">
-        <v>2557</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2435</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2292</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2341</v>
-      </c>
-      <c r="F6" s="3">
-        <f>SUM(B6:E6)</f>
-        <v>9625</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="9">
-        <f>I4/I5</f>
-        <v>0.33149171270718231</v>
-      </c>
-      <c r="J6" s="9">
-        <f>J4/J5</f>
-        <v>0.34085778781038373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
-      <c r="A7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>2587</v>
-      </c>
-      <c r="C7">
-        <f>SUM(C4:C6)</f>
-        <v>2587</v>
-      </c>
-      <c r="D7">
-        <f>SUM(D4:D6)</f>
-        <v>2586</v>
-      </c>
-      <c r="E7">
-        <f>SUM(E4:E6)</f>
-        <v>2588</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
-      <c r="A9" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="23">
-        <f>B4/B5</f>
-        <v>0.30434782608695654</v>
-      </c>
-      <c r="C9" s="22">
-        <f t="shared" ref="C9:E9" si="0">C4/C5</f>
-        <v>0.40740740740740738</v>
-      </c>
-      <c r="D9" s="21">
-        <f t="shared" si="0"/>
-        <v>0.30666666666666664</v>
-      </c>
-      <c r="E9" s="25">
-        <f t="shared" si="0"/>
-        <v>0.32085561497326204</v>
-      </c>
-      <c r="F9" s="9"/>
+        <v>4257</v>
+      </c>
+      <c r="F7">
+        <f>SUM(F4:F6)</f>
+        <v>17024</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
